--- a/Table/client/lua/exe/temp/L 灵饰装备极品属性.xlsx
+++ b/Table/client/lua/exe/temp/L 灵饰装备极品属性.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A144E-0EA3-46B0-8709-E59347C24361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BC68A3FF-7565-4B45-A39A-717074E925A8}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="407">
   <si>
     <t>防御加成</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -221,21 +221,6 @@
     <t>201</t>
   </si>
   <si>
-    <t>1阶-蓝色属性</t>
-  </si>
-  <si>
-    <t>2阶-蓝色属性</t>
-  </si>
-  <si>
-    <t>3阶-蓝色属性</t>
-  </si>
-  <si>
-    <t>4阶-蓝色属性</t>
-  </si>
-  <si>
-    <t>5阶-蓝色属性</t>
-  </si>
-  <si>
     <t>625,3,125,1250</t>
   </si>
   <si>
@@ -260,33 +245,12 @@
     <t>625,8,125,1250</t>
   </si>
   <si>
-    <t>6阶-蓝色属性</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
-    <t>7阶-蓝色属性</t>
-  </si>
-  <si>
     <t>301</t>
   </si>
   <si>
-    <t>1阶-普通紫色属性</t>
-  </si>
-  <si>
-    <t>2阶-普通紫色属性</t>
-  </si>
-  <si>
-    <t>3阶-普通紫色属性</t>
-  </si>
-  <si>
-    <t>4阶-普通紫色属性</t>
-  </si>
-  <si>
-    <t>5阶-普通紫色属性</t>
-  </si>
-  <si>
     <t>625,3,625,6250</t>
   </si>
   <si>
@@ -311,57 +275,30 @@
     <t>625,8,625,6250</t>
   </si>
   <si>
-    <t>6阶-普通紫色属性</t>
-  </si>
-  <si>
     <t>307</t>
   </si>
   <si>
-    <t>7阶-普通紫色属性</t>
-  </si>
-  <si>
     <t>401</t>
   </si>
   <si>
-    <t>1阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>402</t>
   </si>
   <si>
-    <t>2阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>403</t>
   </si>
   <si>
-    <t>3阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>404</t>
   </si>
   <si>
-    <t>4阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>405</t>
   </si>
   <si>
-    <t>5阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>406</t>
   </si>
   <si>
-    <t>6阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>407</t>
   </si>
   <si>
-    <t>7阶-高级紫色属性</t>
-  </si>
-  <si>
     <t>625,3,85,850</t>
   </si>
   <si>
@@ -1248,13 +1185,349 @@
   </si>
   <si>
     <t>625,25,816,16320</t>
+  </si>
+  <si>
+    <t>1階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7階-藍色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7階-普通紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7階-高級紫色屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7급-희귀 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7급-일반 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6급-고급 영웅 속성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7급-고급 영웅 속성</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,8 +1586,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +1604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,6 +1658,9 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,1254 +1941,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
+      <c r="B2" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
+      <c r="B3" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
+      <c r="B4" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>367</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
+      <c r="B5" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>368</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
+      <c r="B7" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>281</v>
+        <v>259</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>281</v>
+        <v>259</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
+      <c r="B10" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
+      <c r="B11" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
+      <c r="B12" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
+      <c r="B13" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
+      <c r="B14" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="Q17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="1" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>345</v>
+      <c r="I21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="1" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>353</v>
+      <c r="I22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -2910,7 +3263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404259B3-93DA-495A-BCB0-E693696A8B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Table/client/lua/exe/temp/L 灵饰装备极品属性.xlsx
+++ b/Table/client/lua/exe/temp/L 灵饰装备极品属性.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A144E-0EA3-46B0-8709-E59347C24361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BC68A3FF-7565-4B45-A39A-717074E925A8}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="386">
   <si>
     <t>防御加成</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -221,6 +221,21 @@
     <t>201</t>
   </si>
   <si>
+    <t>1阶-蓝色属性</t>
+  </si>
+  <si>
+    <t>2阶-蓝色属性</t>
+  </si>
+  <si>
+    <t>3阶-蓝色属性</t>
+  </si>
+  <si>
+    <t>4阶-蓝色属性</t>
+  </si>
+  <si>
+    <t>5阶-蓝色属性</t>
+  </si>
+  <si>
     <t>625,3,125,1250</t>
   </si>
   <si>
@@ -245,12 +260,33 @@
     <t>625,8,125,1250</t>
   </si>
   <si>
+    <t>6阶-蓝色属性</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
+    <t>7阶-蓝色属性</t>
+  </si>
+  <si>
     <t>301</t>
   </si>
   <si>
+    <t>1阶-普通紫色属性</t>
+  </si>
+  <si>
+    <t>2阶-普通紫色属性</t>
+  </si>
+  <si>
+    <t>3阶-普通紫色属性</t>
+  </si>
+  <si>
+    <t>4阶-普通紫色属性</t>
+  </si>
+  <si>
+    <t>5阶-普通紫色属性</t>
+  </si>
+  <si>
     <t>625,3,625,6250</t>
   </si>
   <si>
@@ -275,30 +311,57 @@
     <t>625,8,625,6250</t>
   </si>
   <si>
+    <t>6阶-普通紫色属性</t>
+  </si>
+  <si>
     <t>307</t>
   </si>
   <si>
+    <t>7阶-普通紫色属性</t>
+  </si>
+  <si>
     <t>401</t>
   </si>
   <si>
+    <t>1阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>402</t>
   </si>
   <si>
+    <t>2阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>403</t>
   </si>
   <si>
+    <t>3阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>404</t>
   </si>
   <si>
+    <t>4阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>405</t>
   </si>
   <si>
+    <t>5阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>406</t>
   </si>
   <si>
+    <t>6阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>407</t>
   </si>
   <si>
+    <t>7阶-高级紫色属性</t>
+  </si>
+  <si>
     <t>625,3,85,850</t>
   </si>
   <si>
@@ -1185,349 +1248,13 @@
   </si>
   <si>
     <t>625,25,816,16320</t>
-  </si>
-  <si>
-    <t>1階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7階-藍色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7階-普通紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7階-高級紫色屬性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7급-희귀 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7급-일반 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6급-고급 영웅 속성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7급-고급 영웅 속성</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,15 +1313,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,12 +1324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1658,9 +1372,6 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,1318 +1652,1254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>386</v>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>387</v>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>388</v>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>367</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>389</v>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>390</v>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>369</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>391</v>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>392</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>393</v>
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>394</v>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>395</v>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>396</v>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>375</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>397</v>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>398</v>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>300</v>
-      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>308</v>
+      <c r="L22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -3263,7 +2910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404259B3-93DA-495A-BCB0-E693696A8B8F}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
